--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H2">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I2">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J2">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.169711</v>
+        <v>0.1607953333333333</v>
       </c>
       <c r="N2">
-        <v>0.5091330000000001</v>
+        <v>0.482386</v>
       </c>
       <c r="O2">
-        <v>0.169026555136069</v>
+        <v>0.1910919415013512</v>
       </c>
       <c r="P2">
-        <v>0.169026555136069</v>
+        <v>0.1910919415013512</v>
       </c>
       <c r="Q2">
-        <v>14.677369621812</v>
+        <v>23.06891247116822</v>
       </c>
       <c r="R2">
-        <v>132.096326596308</v>
+        <v>207.620212240514</v>
       </c>
       <c r="S2">
-        <v>0.0191649419874334</v>
+        <v>0.0465570926717721</v>
       </c>
       <c r="T2">
-        <v>0.0191649419874334</v>
+        <v>0.0465570926717721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H3">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I3">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J3">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>1.339159</v>
       </c>
       <c r="O3">
-        <v>0.4445860561964419</v>
+        <v>0.5304932010651388</v>
       </c>
       <c r="P3">
-        <v>0.4445860561964419</v>
+        <v>0.5304932010651388</v>
       </c>
       <c r="Q3">
-        <v>38.605495274076</v>
+        <v>64.04195344802122</v>
       </c>
       <c r="R3">
-        <v>347.449457466684</v>
+        <v>576.377581032191</v>
       </c>
       <c r="S3">
-        <v>0.05040903761286209</v>
+        <v>0.1292478423197142</v>
       </c>
       <c r="T3">
-        <v>0.05040903761286211</v>
+        <v>0.1292478423197142</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H4">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I4">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J4">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1427086666666667</v>
+        <v>0.09248466666666666</v>
       </c>
       <c r="N4">
-        <v>0.428126</v>
+        <v>0.277454</v>
       </c>
       <c r="O4">
-        <v>0.1421331222768602</v>
+        <v>0.1099103695739841</v>
       </c>
       <c r="P4">
-        <v>0.1421331222768603</v>
+        <v>0.1099103695739841</v>
       </c>
       <c r="Q4">
-        <v>12.342086540664</v>
+        <v>13.26854850840511</v>
       </c>
       <c r="R4">
-        <v>111.078778865976</v>
+        <v>119.416936575646</v>
       </c>
       <c r="S4">
-        <v>0.01611565141782581</v>
+        <v>0.02677824727532279</v>
       </c>
       <c r="T4">
-        <v>0.01611565141782582</v>
+        <v>0.02677824727532278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,61 +729,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H5">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I5">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J5">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.126712</v>
+        <v>0.141789</v>
       </c>
       <c r="N5">
-        <v>0.380136</v>
+        <v>0.425367</v>
       </c>
       <c r="O5">
-        <v>0.1262009702046513</v>
+        <v>0.1685044878595259</v>
       </c>
       <c r="P5">
-        <v>0.1262009702046513</v>
+        <v>0.1685044878595259</v>
       </c>
       <c r="Q5">
-        <v>10.958622950304</v>
+        <v>20.342120399687</v>
       </c>
       <c r="R5">
-        <v>98.62760655273601</v>
+        <v>183.079083597183</v>
       </c>
       <c r="S5">
-        <v>0.01430919698258605</v>
+        <v>0.04105395023593903</v>
       </c>
       <c r="T5">
-        <v>0.01430919698258605</v>
+        <v>0.04105395023593903</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>86.484492</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H6">
-        <v>259.453476</v>
+        <v>473.562271</v>
       </c>
       <c r="I6">
-        <v>0.1133842074223504</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J6">
-        <v>0.1133842074223504</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,33 +809,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.01359466666666667</v>
+        <v>0.1607953333333333</v>
       </c>
       <c r="N6">
-        <v>0.040784</v>
+        <v>0.482386</v>
       </c>
       <c r="O6">
-        <v>0.0135398393438835</v>
+        <v>0.1910919415013512</v>
       </c>
       <c r="P6">
-        <v>0.0135398393438835</v>
+        <v>0.1910919415013512</v>
       </c>
       <c r="Q6">
-        <v>1.175727840576</v>
+        <v>25.38220107317844</v>
       </c>
       <c r="R6">
-        <v>10.581550565184</v>
+        <v>228.439809658606</v>
       </c>
       <c r="S6">
-        <v>0.001535203952632188</v>
+        <v>0.05122571291795618</v>
       </c>
       <c r="T6">
-        <v>0.001535203952632188</v>
+        <v>0.05122571291795618</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>86.484492</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H7">
-        <v>259.453476</v>
+        <v>473.562271</v>
       </c>
       <c r="I7">
-        <v>0.1133842074223504</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J7">
-        <v>0.1133842074223504</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1049366666666667</v>
+        <v>0.4463863333333333</v>
       </c>
       <c r="N7">
-        <v>0.31481</v>
+        <v>1.339159</v>
       </c>
       <c r="O7">
-        <v>0.1045134568420941</v>
+        <v>0.5304932010651388</v>
       </c>
       <c r="P7">
-        <v>0.1045134568420941</v>
+        <v>0.5304932010651388</v>
       </c>
       <c r="Q7">
-        <v>9.07539430884</v>
+        <v>70.46390858556545</v>
       </c>
       <c r="R7">
-        <v>81.67854877956</v>
+        <v>634.175177270089</v>
       </c>
       <c r="S7">
-        <v>0.01185017546901086</v>
+        <v>0.1422084689138932</v>
       </c>
       <c r="T7">
-        <v>0.01185017546901087</v>
+        <v>0.1422084689138932</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>473.562271</v>
       </c>
       <c r="I8">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J8">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.169711</v>
+        <v>0.09248466666666666</v>
       </c>
       <c r="N8">
-        <v>0.5091330000000001</v>
+        <v>0.277454</v>
       </c>
       <c r="O8">
-        <v>0.169026555136069</v>
+        <v>0.1099103695739841</v>
       </c>
       <c r="P8">
-        <v>0.169026555136069</v>
+        <v>0.1099103695739841</v>
       </c>
       <c r="Q8">
-        <v>26.78957552456034</v>
+        <v>14.59908292644822</v>
       </c>
       <c r="R8">
-        <v>241.106179721043</v>
+        <v>131.391746338034</v>
       </c>
       <c r="S8">
-        <v>0.03498042728536122</v>
+        <v>0.02946349801183827</v>
       </c>
       <c r="T8">
-        <v>0.03498042728536123</v>
+        <v>0.02946349801183826</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>473.562271</v>
       </c>
       <c r="I9">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J9">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,33 +995,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.4463863333333333</v>
+        <v>0.141789</v>
       </c>
       <c r="N9">
-        <v>1.339159</v>
+        <v>0.425367</v>
       </c>
       <c r="O9">
-        <v>0.4445860561964419</v>
+        <v>0.1685044878595259</v>
       </c>
       <c r="P9">
-        <v>0.4445860561964419</v>
+        <v>0.1685044878595259</v>
       </c>
       <c r="Q9">
-        <v>70.46390858556545</v>
+        <v>22.381973614273</v>
       </c>
       <c r="R9">
-        <v>634.175177270089</v>
+        <v>201.437762528457</v>
       </c>
       <c r="S9">
-        <v>0.09200808830509324</v>
+        <v>0.04517073013473084</v>
       </c>
       <c r="T9">
-        <v>0.09200808830509327</v>
+        <v>0.04517073013473083</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,61 +1039,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>157.8540903333333</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H10">
-        <v>473.562271</v>
+        <v>218.787952</v>
       </c>
       <c r="I10">
-        <v>0.206952258224759</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J10">
-        <v>0.206952258224759</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1427086666666667</v>
+        <v>0.1607953333333333</v>
       </c>
       <c r="N10">
-        <v>0.428126</v>
+        <v>0.482386</v>
       </c>
       <c r="O10">
-        <v>0.1421331222768602</v>
+        <v>0.1910919415013512</v>
       </c>
       <c r="P10">
-        <v>0.1421331222768603</v>
+        <v>0.1910919415013512</v>
       </c>
       <c r="Q10">
-        <v>22.52714675934956</v>
+        <v>11.72669389038578</v>
       </c>
       <c r="R10">
-        <v>202.744320834146</v>
+        <v>105.540245013472</v>
       </c>
       <c r="S10">
-        <v>0.02941477062373202</v>
+        <v>0.0236665154835774</v>
       </c>
       <c r="T10">
-        <v>0.02941477062373203</v>
+        <v>0.0236665154835774</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>157.8540903333333</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H11">
-        <v>473.562271</v>
+        <v>218.787952</v>
       </c>
       <c r="I11">
-        <v>0.206952258224759</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J11">
-        <v>0.206952258224759</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.126712</v>
+        <v>0.4463863333333333</v>
       </c>
       <c r="N11">
-        <v>0.380136</v>
+        <v>1.339159</v>
       </c>
       <c r="O11">
-        <v>0.1262009702046513</v>
+        <v>0.5304932010651388</v>
       </c>
       <c r="P11">
-        <v>0.1262009702046513</v>
+        <v>0.5304932010651388</v>
       </c>
       <c r="Q11">
-        <v>20.00200749431734</v>
+        <v>32.55465055692978</v>
       </c>
       <c r="R11">
-        <v>180.018067448856</v>
+        <v>292.991855012368</v>
       </c>
       <c r="S11">
-        <v>0.02611757577400812</v>
+        <v>0.0657009681219439</v>
       </c>
       <c r="T11">
-        <v>0.02611757577400812</v>
+        <v>0.0657009681219439</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>157.8540903333333</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H12">
-        <v>473.562271</v>
+        <v>218.787952</v>
       </c>
       <c r="I12">
-        <v>0.206952258224759</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J12">
-        <v>0.206952258224759</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,33 +1181,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.01359466666666667</v>
+        <v>0.09248466666666666</v>
       </c>
       <c r="N12">
-        <v>0.040784</v>
+        <v>0.277454</v>
       </c>
       <c r="O12">
-        <v>0.0135398393438835</v>
+        <v>0.1099103695739841</v>
       </c>
       <c r="P12">
-        <v>0.0135398393438835</v>
+        <v>0.1099103695739841</v>
       </c>
       <c r="Q12">
-        <v>2.145973740051556</v>
+        <v>6.74484360380089</v>
       </c>
       <c r="R12">
-        <v>19.313763660464</v>
+        <v>60.703592434208</v>
       </c>
       <c r="S12">
-        <v>0.00280210032821713</v>
+        <v>0.01361227188803258</v>
       </c>
       <c r="T12">
-        <v>0.002802100328217131</v>
+        <v>0.01361227188803258</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>157.8540903333333</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H13">
-        <v>473.562271</v>
+        <v>218.787952</v>
       </c>
       <c r="I13">
-        <v>0.206952258224759</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J13">
-        <v>0.206952258224759</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1049366666666667</v>
+        <v>0.141789</v>
       </c>
       <c r="N13">
-        <v>0.31481</v>
+        <v>0.425367</v>
       </c>
       <c r="O13">
-        <v>0.1045134568420941</v>
+        <v>0.1685044878595259</v>
       </c>
       <c r="P13">
-        <v>0.1045134568420941</v>
+        <v>0.1685044878595259</v>
       </c>
       <c r="Q13">
-        <v>16.56468205927889</v>
+        <v>10.340574975376</v>
       </c>
       <c r="R13">
-        <v>149.08213853351</v>
+        <v>93.06517477838401</v>
       </c>
       <c r="S13">
-        <v>0.02162929590834726</v>
+        <v>0.02086908552840022</v>
       </c>
       <c r="T13">
-        <v>0.02162929590834727</v>
+        <v>0.02086908552840022</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>107.1200406666667</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H14">
-        <v>321.360122</v>
+        <v>258.995716</v>
       </c>
       <c r="I14">
-        <v>0.1404381367013168</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J14">
-        <v>0.1404381367013169</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.169711</v>
+        <v>0.1607953333333333</v>
       </c>
       <c r="N14">
-        <v>0.5091330000000001</v>
+        <v>0.482386</v>
       </c>
       <c r="O14">
-        <v>0.169026555136069</v>
+        <v>0.1910919415013512</v>
       </c>
       <c r="P14">
-        <v>0.169026555136069</v>
+        <v>0.1910919415013512</v>
       </c>
       <c r="Q14">
-        <v>18.17944922158067</v>
+        <v>13.88176749537511</v>
       </c>
       <c r="R14">
-        <v>163.615042994226</v>
+        <v>124.935907458376</v>
       </c>
       <c r="S14">
-        <v>0.02373777445635193</v>
+        <v>0.0280158302450503</v>
       </c>
       <c r="T14">
-        <v>0.02373777445635194</v>
+        <v>0.0280158302450503</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>107.1200406666667</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H15">
-        <v>321.360122</v>
+        <v>258.995716</v>
       </c>
       <c r="I15">
-        <v>0.1404381367013168</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J15">
-        <v>0.1404381367013169</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,27 +1373,27 @@
         <v>1.339159</v>
       </c>
       <c r="O15">
-        <v>0.4445860561964419</v>
+        <v>0.5304932010651388</v>
       </c>
       <c r="P15">
-        <v>0.4445860561964419</v>
+        <v>0.5304932010651388</v>
       </c>
       <c r="Q15">
-        <v>47.81692217971089</v>
+        <v>38.53738267142711</v>
       </c>
       <c r="R15">
-        <v>430.352299617398</v>
+        <v>346.836444042844</v>
       </c>
       <c r="S15">
-        <v>0.06243683733561523</v>
+        <v>0.07777516597731138</v>
       </c>
       <c r="T15">
-        <v>0.06243683733561525</v>
+        <v>0.07777516597731138</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>107.1200406666667</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H16">
-        <v>321.360122</v>
+        <v>258.995716</v>
       </c>
       <c r="I16">
-        <v>0.1404381367013168</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J16">
-        <v>0.1404381367013169</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1427086666666667</v>
+        <v>0.09248466666666666</v>
       </c>
       <c r="N16">
-        <v>0.428126</v>
+        <v>0.277454</v>
       </c>
       <c r="O16">
-        <v>0.1421331222768602</v>
+        <v>0.1099103695739841</v>
       </c>
       <c r="P16">
-        <v>0.1421331222768603</v>
+        <v>0.1099103695739841</v>
       </c>
       <c r="Q16">
-        <v>15.28695817681911</v>
+        <v>7.984377487451556</v>
       </c>
       <c r="R16">
-        <v>137.582623591372</v>
+        <v>71.85939738706399</v>
       </c>
       <c r="S16">
-        <v>0.01996091085610268</v>
+        <v>0.01611386765953031</v>
       </c>
       <c r="T16">
-        <v>0.01996091085610269</v>
+        <v>0.01611386765953031</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>107.1200406666667</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H17">
-        <v>321.360122</v>
+        <v>258.995716</v>
       </c>
       <c r="I17">
-        <v>0.1404381367013168</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J17">
-        <v>0.1404381367013169</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.126712</v>
+        <v>0.141789</v>
       </c>
       <c r="N17">
-        <v>0.380136</v>
+        <v>0.425367</v>
       </c>
       <c r="O17">
-        <v>0.1262009702046513</v>
+        <v>0.1685044878595259</v>
       </c>
       <c r="P17">
-        <v>0.1262009702046513</v>
+        <v>0.1685044878595259</v>
       </c>
       <c r="Q17">
-        <v>13.57339459295467</v>
+        <v>12.240914525308</v>
       </c>
       <c r="R17">
-        <v>122.160551336592</v>
+        <v>110.168230727772</v>
       </c>
       <c r="S17">
-        <v>0.01772342910543964</v>
+        <v>0.02470430249602251</v>
       </c>
       <c r="T17">
-        <v>0.01772342910543964</v>
+        <v>0.02470430249602251</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>107.1200406666667</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H18">
-        <v>321.360122</v>
+        <v>103.664405</v>
       </c>
       <c r="I18">
-        <v>0.1404381367013168</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J18">
-        <v>0.1404381367013169</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,33 +1553,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.01359466666666667</v>
+        <v>0.1607953333333333</v>
       </c>
       <c r="N18">
-        <v>0.040784</v>
+        <v>0.482386</v>
       </c>
       <c r="O18">
-        <v>0.0135398393438835</v>
+        <v>0.1910919415013512</v>
       </c>
       <c r="P18">
-        <v>0.0135398393438835</v>
+        <v>0.1910919415013512</v>
       </c>
       <c r="Q18">
-        <v>1.456261246183111</v>
+        <v>5.556250852258888</v>
       </c>
       <c r="R18">
-        <v>13.106351215648</v>
+        <v>50.00625767032999</v>
       </c>
       <c r="S18">
-        <v>0.001901509808690179</v>
+        <v>0.01121348421428771</v>
       </c>
       <c r="T18">
-        <v>0.00190150980869018</v>
+        <v>0.01121348421428771</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,51 +1597,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>107.1200406666667</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H19">
-        <v>321.360122</v>
+        <v>103.664405</v>
       </c>
       <c r="I19">
-        <v>0.1404381367013168</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J19">
-        <v>0.1404381367013169</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1049366666666667</v>
+        <v>0.4463863333333333</v>
       </c>
       <c r="N19">
-        <v>0.31481</v>
+        <v>1.339159</v>
       </c>
       <c r="O19">
-        <v>0.1045134568420941</v>
+        <v>0.5304932010651388</v>
       </c>
       <c r="P19">
-        <v>0.1045134568420941</v>
+        <v>0.5304932010651388</v>
       </c>
       <c r="Q19">
-        <v>11.24082000075778</v>
+        <v>15.42479121504389</v>
       </c>
       <c r="R19">
-        <v>101.16738000682</v>
+        <v>138.823120935395</v>
       </c>
       <c r="S19">
-        <v>0.01467767513911718</v>
+        <v>0.0311299214880227</v>
       </c>
       <c r="T19">
-        <v>0.01467767513911719</v>
+        <v>0.0311299214880227</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,51 +1659,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>270.499283</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H20">
-        <v>811.497849</v>
+        <v>103.664405</v>
       </c>
       <c r="I20">
-        <v>0.354634063310091</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J20">
-        <v>0.3546340633100911</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.169711</v>
+        <v>0.09248466666666666</v>
       </c>
       <c r="N20">
-        <v>0.5091330000000001</v>
+        <v>0.277454</v>
       </c>
       <c r="O20">
-        <v>0.169026555136069</v>
+        <v>0.1099103695739841</v>
       </c>
       <c r="P20">
-        <v>0.169026555136069</v>
+        <v>0.1099103695739841</v>
       </c>
       <c r="Q20">
-        <v>45.90670381721301</v>
+        <v>3.195789313874444</v>
       </c>
       <c r="R20">
-        <v>413.160334354917</v>
+        <v>28.76210382487</v>
       </c>
       <c r="S20">
-        <v>0.0599425740552113</v>
+        <v>0.006449660747183756</v>
       </c>
       <c r="T20">
-        <v>0.05994257405521131</v>
+        <v>0.006449660747183754</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>270.499283</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H21">
-        <v>811.497849</v>
+        <v>103.664405</v>
       </c>
       <c r="I21">
-        <v>0.354634063310091</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J21">
-        <v>0.3546340633100911</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.4463863333333333</v>
+        <v>0.141789</v>
       </c>
       <c r="N21">
-        <v>1.339159</v>
+        <v>0.425367</v>
       </c>
       <c r="O21">
-        <v>0.4445860561964419</v>
+        <v>0.1685044878595259</v>
       </c>
       <c r="P21">
-        <v>0.4445860561964419</v>
+        <v>0.1685044878595259</v>
       </c>
       <c r="Q21">
-        <v>120.7471831076657</v>
+        <v>4.899490773515</v>
       </c>
       <c r="R21">
-        <v>1086.724647968991</v>
+        <v>44.095416961635</v>
       </c>
       <c r="S21">
-        <v>0.1576653595999526</v>
+        <v>0.009888027720080853</v>
       </c>
       <c r="T21">
-        <v>0.1576653595999527</v>
+        <v>0.009888027720080851</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>270.499283</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H22">
-        <v>811.497849</v>
+        <v>281.159469</v>
       </c>
       <c r="I22">
-        <v>0.354634063310091</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J22">
-        <v>0.3546340633100911</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1427086666666667</v>
+        <v>0.1607953333333333</v>
       </c>
       <c r="N22">
-        <v>0.428126</v>
+        <v>0.482386</v>
       </c>
       <c r="O22">
-        <v>0.1421331222768602</v>
+        <v>0.1910919415013512</v>
       </c>
       <c r="P22">
-        <v>0.1421331222768603</v>
+        <v>0.1910919415013512</v>
       </c>
       <c r="Q22">
-        <v>38.60259201121934</v>
+        <v>15.069710179226</v>
       </c>
       <c r="R22">
-        <v>347.423328100974</v>
+        <v>135.627391613034</v>
       </c>
       <c r="S22">
-        <v>0.05040524668399296</v>
+        <v>0.03041330596870754</v>
       </c>
       <c r="T22">
-        <v>0.05040524668399298</v>
+        <v>0.03041330596870754</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,51 +1845,51 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>270.499283</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H23">
-        <v>811.497849</v>
+        <v>281.159469</v>
       </c>
       <c r="I23">
-        <v>0.354634063310091</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J23">
-        <v>0.3546340633100911</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.126712</v>
+        <v>0.4463863333333333</v>
       </c>
       <c r="N23">
-        <v>0.380136</v>
+        <v>1.339159</v>
       </c>
       <c r="O23">
-        <v>0.1262009702046513</v>
+        <v>0.5304932010651388</v>
       </c>
       <c r="P23">
-        <v>0.1262009702046513</v>
+        <v>0.5304932010651388</v>
       </c>
       <c r="Q23">
-        <v>34.27550514749601</v>
+        <v>41.83524814961901</v>
       </c>
       <c r="R23">
-        <v>308.479546327464</v>
+        <v>376.517233346571</v>
       </c>
       <c r="S23">
-        <v>0.04475516285735123</v>
+        <v>0.08443083424425341</v>
       </c>
       <c r="T23">
-        <v>0.04475516285735124</v>
+        <v>0.08443083424425341</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>270.499283</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H24">
-        <v>811.497849</v>
+        <v>281.159469</v>
       </c>
       <c r="I24">
-        <v>0.354634063310091</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J24">
-        <v>0.3546340633100911</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,33 +1925,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.01359466666666667</v>
+        <v>0.09248466666666666</v>
       </c>
       <c r="N24">
-        <v>0.040784</v>
+        <v>0.277454</v>
       </c>
       <c r="O24">
-        <v>0.0135398393438835</v>
+        <v>0.1099103695739841</v>
       </c>
       <c r="P24">
-        <v>0.0135398393438835</v>
+        <v>0.1099103695739841</v>
       </c>
       <c r="Q24">
-        <v>3.677347585957333</v>
+        <v>8.667646590214</v>
       </c>
       <c r="R24">
-        <v>33.096128273616</v>
+        <v>78.00881931192599</v>
       </c>
       <c r="S24">
-        <v>0.004801688243087242</v>
+        <v>0.01749282399207644</v>
       </c>
       <c r="T24">
-        <v>0.004801688243087245</v>
+        <v>0.01749282399207643</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1969,790 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>270.499283</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H25">
-        <v>811.497849</v>
+        <v>281.159469</v>
       </c>
       <c r="I25">
-        <v>0.354634063310091</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J25">
-        <v>0.3546340633100911</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.1049366666666667</v>
+        <v>0.141789</v>
       </c>
       <c r="N25">
-        <v>0.31481</v>
+        <v>0.425367</v>
       </c>
       <c r="O25">
-        <v>0.1045134568420941</v>
+        <v>0.1685044878595259</v>
       </c>
       <c r="P25">
-        <v>0.1045134568420941</v>
+        <v>0.1685044878595259</v>
       </c>
       <c r="Q25">
-        <v>28.38529309374333</v>
+        <v>13.288439983347</v>
       </c>
       <c r="R25">
-        <v>255.46763784369</v>
+        <v>119.595959850123</v>
       </c>
       <c r="S25">
-        <v>0.03706403187049566</v>
+        <v>0.02681839174435249</v>
       </c>
       <c r="T25">
-        <v>0.03706403187049567</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>36.59512433333333</v>
-      </c>
-      <c r="H26">
-        <v>109.785373</v>
-      </c>
-      <c r="I26">
-        <v>0.04797749367663937</v>
-      </c>
-      <c r="J26">
-        <v>0.04797749367663939</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.169711</v>
-      </c>
-      <c r="N26">
-        <v>0.5091330000000001</v>
-      </c>
-      <c r="O26">
-        <v>0.169026555136069</v>
-      </c>
-      <c r="P26">
-        <v>0.169026555136069</v>
-      </c>
-      <c r="Q26">
-        <v>6.210595145734334</v>
-      </c>
-      <c r="R26">
-        <v>55.895356311609</v>
-      </c>
-      <c r="S26">
-        <v>0.008109470480224888</v>
-      </c>
-      <c r="T26">
-        <v>0.008109470480224892</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>36.59512433333333</v>
-      </c>
-      <c r="H27">
-        <v>109.785373</v>
-      </c>
-      <c r="I27">
-        <v>0.04797749367663937</v>
-      </c>
-      <c r="J27">
-        <v>0.04797749367663939</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M27">
-        <v>0.4463863333333333</v>
-      </c>
-      <c r="N27">
-        <v>1.339159</v>
-      </c>
-      <c r="O27">
-        <v>0.4445860561964419</v>
-      </c>
-      <c r="P27">
-        <v>0.4445860561964419</v>
-      </c>
-      <c r="Q27">
-        <v>16.33556336903411</v>
-      </c>
-      <c r="R27">
-        <v>147.020070321307</v>
-      </c>
-      <c r="S27">
-        <v>0.02133012469988683</v>
-      </c>
-      <c r="T27">
-        <v>0.02133012469988683</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>36.59512433333333</v>
-      </c>
-      <c r="H28">
-        <v>109.785373</v>
-      </c>
-      <c r="I28">
-        <v>0.04797749367663937</v>
-      </c>
-      <c r="J28">
-        <v>0.04797749367663939</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.1427086666666667</v>
-      </c>
-      <c r="N28">
-        <v>0.428126</v>
-      </c>
-      <c r="O28">
-        <v>0.1421331222768602</v>
-      </c>
-      <c r="P28">
-        <v>0.1421331222768603</v>
-      </c>
-      <c r="Q28">
-        <v>5.222441400110889</v>
-      </c>
-      <c r="R28">
-        <v>47.00197260099799</v>
-      </c>
-      <c r="S28">
-        <v>0.006819190975279072</v>
-      </c>
-      <c r="T28">
-        <v>0.006819190975279076</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>36.59512433333333</v>
-      </c>
-      <c r="H29">
-        <v>109.785373</v>
-      </c>
-      <c r="I29">
-        <v>0.04797749367663937</v>
-      </c>
-      <c r="J29">
-        <v>0.04797749367663939</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.126712</v>
-      </c>
-      <c r="N29">
-        <v>0.380136</v>
-      </c>
-      <c r="O29">
-        <v>0.1262009702046513</v>
-      </c>
-      <c r="P29">
-        <v>0.1262009702046513</v>
-      </c>
-      <c r="Q29">
-        <v>4.637041394525334</v>
-      </c>
-      <c r="R29">
-        <v>41.733372550728</v>
-      </c>
-      <c r="S29">
-        <v>0.006054806249979412</v>
-      </c>
-      <c r="T29">
-        <v>0.006054806249979414</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>36.59512433333333</v>
-      </c>
-      <c r="H30">
-        <v>109.785373</v>
-      </c>
-      <c r="I30">
-        <v>0.04797749367663937</v>
-      </c>
-      <c r="J30">
-        <v>0.04797749367663939</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M30">
-        <v>0.01359466666666667</v>
-      </c>
-      <c r="N30">
-        <v>0.040784</v>
-      </c>
-      <c r="O30">
-        <v>0.0135398393438835</v>
-      </c>
-      <c r="P30">
-        <v>0.0135398393438835</v>
-      </c>
-      <c r="Q30">
-        <v>0.4974985169368888</v>
-      </c>
-      <c r="R30">
-        <v>4.477486652432</v>
-      </c>
-      <c r="S30">
-        <v>0.0006496075565038836</v>
-      </c>
-      <c r="T30">
-        <v>0.000649607556503884</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>36.59512433333333</v>
-      </c>
-      <c r="H31">
-        <v>109.785373</v>
-      </c>
-      <c r="I31">
-        <v>0.04797749367663937</v>
-      </c>
-      <c r="J31">
-        <v>0.04797749367663939</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.1049366666666667</v>
-      </c>
-      <c r="N31">
-        <v>0.31481</v>
-      </c>
-      <c r="O31">
-        <v>0.1045134568420941</v>
-      </c>
-      <c r="P31">
-        <v>0.1045134568420941</v>
-      </c>
-      <c r="Q31">
-        <v>3.840170363792222</v>
-      </c>
-      <c r="R31">
-        <v>34.56153327412999</v>
-      </c>
-      <c r="S31">
-        <v>0.005014293714765291</v>
-      </c>
-      <c r="T31">
-        <v>0.005014293714765292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>104.2030356666667</v>
-      </c>
-      <c r="H32">
-        <v>312.609107</v>
-      </c>
-      <c r="I32">
-        <v>0.1366138406648432</v>
-      </c>
-      <c r="J32">
-        <v>0.1366138406648433</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.169711</v>
-      </c>
-      <c r="N32">
-        <v>0.5091330000000001</v>
-      </c>
-      <c r="O32">
-        <v>0.169026555136069</v>
-      </c>
-      <c r="P32">
-        <v>0.169026555136069</v>
-      </c>
-      <c r="Q32">
-        <v>17.68440138602567</v>
-      </c>
-      <c r="R32">
-        <v>159.159612474231</v>
-      </c>
-      <c r="S32">
-        <v>0.02309136687148627</v>
-      </c>
-      <c r="T32">
-        <v>0.02309136687148628</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>104.2030356666667</v>
-      </c>
-      <c r="H33">
-        <v>312.609107</v>
-      </c>
-      <c r="I33">
-        <v>0.1366138406648432</v>
-      </c>
-      <c r="J33">
-        <v>0.1366138406648433</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M33">
-        <v>0.4463863333333333</v>
-      </c>
-      <c r="N33">
-        <v>1.339159</v>
-      </c>
-      <c r="O33">
-        <v>0.4445860561964419</v>
-      </c>
-      <c r="P33">
-        <v>0.4445860561964419</v>
-      </c>
-      <c r="Q33">
-        <v>46.51481101344589</v>
-      </c>
-      <c r="R33">
-        <v>418.633299121013</v>
-      </c>
-      <c r="S33">
-        <v>0.06073660864303174</v>
-      </c>
-      <c r="T33">
-        <v>0.06073660864303177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>104.2030356666667</v>
-      </c>
-      <c r="H34">
-        <v>312.609107</v>
-      </c>
-      <c r="I34">
-        <v>0.1366138406648432</v>
-      </c>
-      <c r="J34">
-        <v>0.1366138406648433</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.1427086666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.428126</v>
-      </c>
-      <c r="O34">
-        <v>0.1421331222768602</v>
-      </c>
-      <c r="P34">
-        <v>0.1421331222768603</v>
-      </c>
-      <c r="Q34">
-        <v>14.87067628260911</v>
-      </c>
-      <c r="R34">
-        <v>133.836086543482</v>
-      </c>
-      <c r="S34">
-        <v>0.01941735171992766</v>
-      </c>
-      <c r="T34">
-        <v>0.01941735171992767</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>104.2030356666667</v>
-      </c>
-      <c r="H35">
-        <v>312.609107</v>
-      </c>
-      <c r="I35">
-        <v>0.1366138406648432</v>
-      </c>
-      <c r="J35">
-        <v>0.1366138406648433</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M35">
-        <v>0.126712</v>
-      </c>
-      <c r="N35">
-        <v>0.380136</v>
-      </c>
-      <c r="O35">
-        <v>0.1262009702046513</v>
-      </c>
-      <c r="P35">
-        <v>0.1262009702046513</v>
-      </c>
-      <c r="Q35">
-        <v>13.20377505539467</v>
-      </c>
-      <c r="R35">
-        <v>118.833975498552</v>
-      </c>
-      <c r="S35">
-        <v>0.01724079923528686</v>
-      </c>
-      <c r="T35">
-        <v>0.01724079923528687</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>104.2030356666667</v>
-      </c>
-      <c r="H36">
-        <v>312.609107</v>
-      </c>
-      <c r="I36">
-        <v>0.1366138406648432</v>
-      </c>
-      <c r="J36">
-        <v>0.1366138406648433</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M36">
-        <v>0.01359466666666667</v>
-      </c>
-      <c r="N36">
-        <v>0.040784</v>
-      </c>
-      <c r="O36">
-        <v>0.0135398393438835</v>
-      </c>
-      <c r="P36">
-        <v>0.0135398393438835</v>
-      </c>
-      <c r="Q36">
-        <v>1.416605535543111</v>
-      </c>
-      <c r="R36">
-        <v>12.749449819888</v>
-      </c>
-      <c r="S36">
-        <v>0.001849729454752876</v>
-      </c>
-      <c r="T36">
-        <v>0.001849729454752877</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>104.2030356666667</v>
-      </c>
-      <c r="H37">
-        <v>312.609107</v>
-      </c>
-      <c r="I37">
-        <v>0.1366138406648432</v>
-      </c>
-      <c r="J37">
-        <v>0.1366138406648433</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.1049366666666667</v>
-      </c>
-      <c r="N37">
-        <v>0.31481</v>
-      </c>
-      <c r="O37">
-        <v>0.1045134568420941</v>
-      </c>
-      <c r="P37">
-        <v>0.1045134568420941</v>
-      </c>
-      <c r="Q37">
-        <v>10.93471921940778</v>
-      </c>
-      <c r="R37">
-        <v>98.41247297467</v>
-      </c>
-      <c r="S37">
-        <v>0.01427798474035781</v>
-      </c>
-      <c r="T37">
-        <v>0.01427798474035782</v>
+        <v>0.02681839174435249</v>
       </c>
     </row>
   </sheetData>
